--- a/trunk/Troitsa-Reutov/материалы/Пример расписания.xlsx
+++ b/trunk/Troitsa-Reutov/материалы/Пример расписания.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="-540" yWindow="90" windowWidth="16635" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Дата</t>
   </si>
@@ -30,22 +30,88 @@
     <t>Комментарий</t>
   </si>
   <si>
-    <t>Неделя о блудном сыне. Свт. Льва, Папы Римского (461)</t>
-  </si>
-  <si>
-    <t>Литургия</t>
-  </si>
-  <si>
-    <t>Вечерня</t>
-  </si>
-  <si>
-    <t>Молебен</t>
-  </si>
-  <si>
-    <t>Первое и второе обретение главы Иоанна Предтечи. Сщмч. Поликарпа, еп. Смирнского (167)</t>
-  </si>
-  <si>
-    <t>Полиелей</t>
+    <t>Апостола Андрея Первозванного.</t>
+  </si>
+  <si>
+    <t>Часы. Литургия. Водосвятный молебен. Лития.</t>
+  </si>
+  <si>
+    <t>Вечернее богослужение. Исповедь.</t>
+  </si>
+  <si>
+    <t>Прор. Наума. Прав. Филарета Милостивого.</t>
+  </si>
+  <si>
+    <t>Часы. Литургия. Лития.</t>
+  </si>
+  <si>
+    <t>Прор. Аввакума.</t>
+  </si>
+  <si>
+    <t>Часы. Литургия.</t>
+  </si>
+  <si>
+    <t>Про. Софонии. Прп. Саввы Сторожевского.</t>
+  </si>
+  <si>
+    <t>Полиелей. Исповедь.</t>
+  </si>
+  <si>
+    <t>Вмч. Варвары и мц. Иулиании. Прп. Иоанна Дамаскина.</t>
+  </si>
+  <si>
+    <t>Всенощное бдение. Исповедь.</t>
+  </si>
+  <si>
+    <t>Прп. Саввы Освященного.</t>
+  </si>
+  <si>
+    <t>Святителя Николая, архиепископа Мир Ликийских, чудотворца.</t>
+  </si>
+  <si>
+    <t>Свт. Амвросия, еп. Медиоланского.</t>
+  </si>
+  <si>
+    <t>Прп. Патапия.</t>
+  </si>
+  <si>
+    <t>Утреня. Исповедь. Часы. Литургия. Лития.</t>
+  </si>
+  <si>
+    <t>Зачатие прав. Анною Пресвятой Богородицы. Иконы Божией Матери, именуемой "Нечаянная Радость"</t>
+  </si>
+  <si>
+    <t>Мчч. Мины, Ермогена и Евграфа. Свт. Иоасафа, еп. Белгородского.</t>
+  </si>
+  <si>
+    <t>Прп. Даниила Столпника. Прп. Кукши Одесского.</t>
+  </si>
+  <si>
+    <t>Свт. Спиридона, еп. Тримифунтского, чудотворца.</t>
+  </si>
+  <si>
+    <t>Мчч. Евстратия, Авксентия, Евгения, Мардария и Ореста.</t>
+  </si>
+  <si>
+    <t>Мчч. Фирса, Левкия и Каллиника.</t>
+  </si>
+  <si>
+    <t>Сщмч. Илариона, архиеп. Верейского. Прп. Трифона Печенгского (Кольского).</t>
+  </si>
+  <si>
+    <t>Неделя святых праотец.</t>
+  </si>
+  <si>
+    <t>Прор. Даниила и трех отроков: Анании, Азарии и Мисаила.</t>
+  </si>
+  <si>
+    <t>Сщмч. Фаддея, архиеп. Тверского. Мч. Севастиана  и дружины его.</t>
+  </si>
+  <si>
+    <t>Новогодний молебен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Утреня. Исповедь. Часы. Литургия. </t>
   </si>
 </sst>
 </file>
@@ -160,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D28" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:D28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D36" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:D36"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="date" name="Дата">
       <xmlColumnPr mapId="2" xpath="/services/service/date" xmlDataType="date"/>
@@ -467,18 +533,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,7 +563,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41316</v>
+        <v>41621</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -511,10 +577,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41316</v>
+        <v>41621</v>
       </c>
       <c r="C3" s="2">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -522,271 +588,280 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41316</v>
+        <v>41622</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41317</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>41622</v>
       </c>
       <c r="C5" s="2">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41317</v>
+        <v>41623</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41377</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>41623</v>
       </c>
       <c r="C7" s="2">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41378</v>
+        <v>41624</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41379</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>41624</v>
       </c>
       <c r="C9" s="2">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41380</v>
+        <v>41625</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41381</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>41625</v>
       </c>
       <c r="C11" s="2">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41382</v>
+        <v>41626</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="2">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41383</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>41626</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="2">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41384</v>
+        <v>41627</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41385</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>41627</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="2">
         <v>0.375</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41386</v>
+        <v>41627</v>
       </c>
       <c r="C16" s="2">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41387</v>
+        <v>41628</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41388</v>
+        <v>41629</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41389</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>41629</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="2">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41390</v>
+        <v>41630</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41391</v>
+        <v>41631</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41392</v>
+        <v>41632</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41393</v>
+        <v>41633</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
         <v>0.375</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41394</v>
+        <v>41633</v>
       </c>
       <c r="C24" s="2">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41395</v>
+        <v>41634</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
         <v>0.375</v>
@@ -797,38 +872,139 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41396</v>
+        <v>41635</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41397</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>41635</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="2">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41397</v>
+        <v>41636</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="2">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41636</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41637</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41638</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>41638</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>41639</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>41639</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
